--- a/Datos/tiemposuplgenerado.xlsx
+++ b/Datos/tiemposuplgenerado.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34390570-FA58-4396-8DCA-69F1B7530DA7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731CCD7B-5BA7-4682-B7D0-0320A82079CB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,8 +397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Datos/tiemposuplgenerado.xlsx
+++ b/Datos/tiemposuplgenerado.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731CCD7B-5BA7-4682-B7D0-0320A82079CB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485DC671-CB41-4A71-8F50-03B64A40EF44}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,14 +397,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
